--- a/TestData/PetStore_TestData.xlsx
+++ b/TestData/PetStore_TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atripathi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csod365-my.sharepoint.com/personal/atripathi_csod_com/Documents/CSOD/Personal/PetStore_API_Automation/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4E39B8-F51B-4BC0-A5CB-0670AD1BA0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{8B4E39B8-F51B-4BC0-A5CB-0670AD1BA0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9E00D10-3303-4F5D-9824-57BF8AA131DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6211DEBC-F636-4798-8262-E01FFC4E7E6B}"/>
   </bookViews>
@@ -35,11 +35,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>donald.trump@gmail.com</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
+  <si>
+    <t>donald.trump</t>
+  </si>
+  <si>
+    <t>joe.biden</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Biden</t>
+  </si>
+  <si>
+    <t>joe.biden@gmail.com</t>
+  </si>
+  <si>
+    <t>narendra.modi</t>
+  </si>
+  <si>
+    <t>Narendra</t>
+  </si>
+  <si>
+    <t>Modi</t>
+  </si>
+  <si>
+    <t>narendra.modi@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -54,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -62,14 +143,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,14 +677,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0C3B56-888E-4BFF-8EEE-753036F851F5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>23423</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="15">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>54323</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>76543</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{38A55D3B-6C27-4F13-9CC9-84BD0DFC01C3}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{BC1D2A26-D19B-4E2E-9E0C-AD4AC7A2B63C}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{AD683C2C-EDB3-4F47-84F3-D7B7F6F3C839}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>